--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118601.2089733022</v>
+        <v>21013137.92172057</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118601.2089733022</v>
+        <v>21013137.92172057</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21268.09295776489</v>
+        <v>2585143.140653135</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21268.09295776489</v>
+        <v>2585143.140653135</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341543232.88089</v>
+        <v>51872715.95241599</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10147.46863663929</v>
+        <v>1114054.652819016</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19798.89760251471</v>
+        <v>2156568.661494677</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29479.05704225397</v>
+        <v>3199082.670170366</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39470.87367505312</v>
+        <v>4205232.613723816</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49173.52460569939</v>
+        <v>5248361.442639016</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58817.60457363938</v>
+        <v>6296914.569847298</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68463.56628893857</v>
+        <v>7398253.104201401</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78104.4389296775</v>
+        <v>8496108.051300162</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88042.46804917378</v>
+        <v>9516553.129693756</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97603.1101727541</v>
+        <v>10602408.9740188</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106906.0028874421</v>
+        <v>11699817.43674836</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116338.9573667346</v>
+        <v>12795959.650373</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125743.3979936327</v>
+        <v>13892121.55721759</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135613.1890812176</v>
+        <v>14911219.34993307</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146829.9615463447</v>
+        <v>15678256.5733691</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>49.00000000005519</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>355.9999999999448</v>
@@ -27055,10 +27055,10 @@
         <v>59.00000000005519</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>305.9999999999448</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>142</v>
